--- a/Pruebas/Distance1.xlsx
+++ b/Pruebas/Distance1.xlsx
@@ -423,16 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>284.9725829381725</v>
+        <v>169.6762565415604</v>
       </c>
       <c r="B1" t="n">
-        <v>282.7605642749783</v>
+        <v>169.6843569370222</v>
       </c>
       <c r="C1" t="n">
-        <v>282.7428596628532</v>
+        <v>196.2788141792438</v>
       </c>
       <c r="D1" t="n">
-        <v>282.8006613772673</v>
+        <v>169.6919485200167</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Distance1.xlsx
+++ b/Pruebas/Distance1.xlsx
@@ -423,16 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>169.6762565415604</v>
+        <v>169.6830156047345</v>
       </c>
       <c r="B1" t="n">
-        <v>169.6843569370222</v>
+        <v>169.6946457166367</v>
       </c>
       <c r="C1" t="n">
-        <v>196.2788141792438</v>
+        <v>207.7364859886987</v>
       </c>
       <c r="D1" t="n">
-        <v>169.6919485200167</v>
+        <v>169.6836707337971</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Distance1.xlsx
+++ b/Pruebas/Distance1.xlsx
@@ -423,16 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>169.6830156047345</v>
+        <v>166.2628814290556</v>
       </c>
       <c r="B1" t="n">
-        <v>169.6946457166367</v>
+        <v>165.6985149524614</v>
       </c>
       <c r="C1" t="n">
-        <v>207.7364859886987</v>
+        <v>169.1776684877078</v>
       </c>
       <c r="D1" t="n">
-        <v>169.6836707337971</v>
+        <v>165.7635428069682</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Distance1.xlsx
+++ b/Pruebas/Distance1.xlsx
@@ -423,16 +423,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>166.2628814290556</v>
+        <v>166.8934267839032</v>
       </c>
       <c r="B1" t="n">
-        <v>165.6985149524614</v>
+        <v>165.3523348907837</v>
       </c>
       <c r="C1" t="n">
-        <v>169.1776684877078</v>
+        <v>172.5437894489665</v>
       </c>
       <c r="D1" t="n">
-        <v>165.7635428069682</v>
+        <v>167.2058472941964</v>
       </c>
     </row>
   </sheetData>
